--- a/church_database/church_database.xlsx
+++ b/church_database/church_database.xlsx
@@ -1172,6 +1172,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1192,12 +1193,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1286,7 +1289,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
